--- a/resources/Capitals.xlsx
+++ b/resources/Capitals.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>FAMOUS FOR</t>
+  </si>
+  <si>
+    <t>Liberty Statue</t>
+  </si>
+  <si>
+    <t>Eiffel Tower</t>
+  </si>
+  <si>
+    <t>London Eye</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,6 +378,9 @@
       <c r="C1" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -377,6 +392,9 @@
       <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -388,6 +406,9 @@
       <c r="C3" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -398,6 +419,9 @@
       </c>
       <c r="C4" t="s" s="0">
         <v>25</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
